--- a/app/results/reviewed/809035316.xlsx
+++ b/app/results/reviewed/809035316.xlsx
@@ -2640,7 +2640,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>porcentaje_paginas_incorrectas</t>
+          <t>porcentaje_paginas_correctas</t>
         </is>
       </c>
       <c r="B8" t="n">

--- a/app/results/reviewed/809035316.xlsx
+++ b/app/results/reviewed/809035316.xlsx
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'CIUDAD_INMUEBLE': {'valor_encontrado': ' ', 'valor_real': ' ', 'pagina_encontrado': 55, 'pagina_real': -1, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'PRIMERA', 'valor_real': 'CUARTA', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'LEYVA NOTARIO PUBLICO NUMERO UNO DISTRITO JUDICIAL CAMARGO Y DEL PATR MONIO INMUEBLE FEDERAL INSTITUCIONCS O EMPRESAS PARA SU DIVULGACION, REPRODUCCION, EXPLOTACION, INCLUYENDO LA COMERCIALIZACION DE OTROS PRODUCTOS O SERVICIOS, Y', 'valor_real': 'CASA\nHABITACIÓN MARCADA COR EL NÚMERO 714 SETECIENTOS CATORCE DE LA CALLE LEYES DE REFORMA, DE\nLA COLONIA ABRAHAM GUNZÁLEZ, PRIMERA ETAPA, EL CUAL SE IDENTIFICA COMO LOTE 9 NUEVE, DE LA\nMANZANA 57 CINCUENTA Y SIETE, DE ESTA CIUDAD DE CAMARGO, CHIHUAHUA, Y LOTE DE TERRENO\nSOBRE ÉL CONSTRUIDA', 'pagina_encontrado': 12, 'pagina_real': 4, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'CLAUSULAS QUE APARECEN', 'valor_real': 'DISTRITO FEDERA A A LA DE LOS\nTRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'CÉCIMA SEGUNDA', 'pagina_encontrado': 37, 'pagina_real': 41, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'REA_VSM': {'valor_encontrado': ' ', 'valor_real': '7.6111', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': ' ', 'valor_real': '2.176', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '13.7%', 'valor_real': '9.0 %', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}}</t>
+          <t>{'CIUDAD_INMUEBLE': {'valor_encontrado': ' ', 'valor_real': ' ', 'pagina_encontrado': 55, 'pagina_real': -1, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'DECIMA PRIMERA', 'valor_real': 'DECIMA PRIMERA', 'pagina_encontrado': 41, 'pagina_real': 41, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'SEGUNDA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'PRIMERA', 'valor_real': 'CUARTA', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA QUINTA', 'valor_real': 'DECIMA QUINTA', 'pagina_encontrado': 42, 'pagina_real': 42, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA PRIMERA', 'valor_real': 'VIGESIMA PRIMERA', 'pagina_encontrado': 44, 'pagina_real': 44, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 41, 'pagina_real': 41, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'OCTAVA', 'valor_real': 'OCTAVA', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CREDITO_PESOS': {'valor_encontrado': '$427,499 89 CUATROCIENTOS VEINTISIETE MI. CUATROCIENTOS NOVENTA Y NUEVE PESOS 89/100 M.N. NONIC (ER. PESOS', 'valor_real': '$427,499 89 CUATROCIENTOS VEINTISIETE MI. CUATROCIENTOS NOVENTA Y NUEVE PESOS 89/100 M.N. NONIC (ER. PESOS', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE 9 NUEVE, DE LA MANZANA 57 CINCUENTA Y SIETE', 'valor_real': 'LOTE 9 NUEVE, DE LA MANZANA 57 CINCUENTA Y SIETE', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'LEYVA NOTARIO PUBLICO NUMERO UNO DISTRITO JUDICIAL CAMARGO Y DEL PATR MONIO INMUEBLE FEDERAL INSTITUCIONCS O EMPRESAS PARA SU DIVULGACION, REPRODUCCION, EXPLOTACION, INCLUYENDO LA COMERCIALIZACION DE OTROS PRODUCTOS O SERVICIOS, Y', 'valor_real': 'CASA\nHABITACIÓN MARCADA COR EL NÚMERO 714 SETECIENTOS CATORCE DE LA CALLE LEYES DE REFORMA, DE\nLA COLONIA ABRAHAM GUNZÁLEZ, PRIMERA ETAPA, EL CUAL SE IDENTIFICA COMO LOTE 9 NUEVE, DE LA\nMANZANA 57 CINCUENTA Y SIETE, DE ESTA CIUDAD DE CAMARGO, CHIHUAHUA, Y LOTE DE TERRENO\nSOBRE ÉL CONSTRUIDA', 'pagina_encontrado': 12, 'pagina_real': 4, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'FECHA_ESCRITURA': {'valor_encontrado': '2 DOS DIAS DEL MES DE ABRIL CEL AÑO 2009 DOS MIL NUEVE', 'valor_real': '2 DOS DIAS DEL MES DE ABRIL CEL AÑO 2009 DOS MIL NUEVE', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'SANTA AOSALIA DE CAMARGO, MURICIPO DE CAMARGO', 'valor_real': 'SANTA AOSALIA DE CAMARGO, MURICIPO DE CAMARGO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'CLAUSULAS QUE APARECEN', 'valor_real': 'DISTRITO FEDERA A A LA DE LOS\nTRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'COLINDANCIAS_1': {'valor_encontrado': 'AL NORTE, SE MIDEN 20.00 VEINTE METROS Y LINDA CON LOTE NÚMERO 8 OCHO', 'valor_real': 'AL NORTE, SE MIDEN 20.00 VEINTE METROS Y LINDA CON LOTE NÚMERO 8 OCHO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'AL SUR, SE MIDEN 20.00 VEINTE METROS. Y LINDA CON LOTE NÚMERO 10 DIEZ', 'valor_real': 'AL SUR, SE MIDEN 20.00 VEINTE METROS. Y LINDA CON LOTE NÚMERO 10 DIEZ', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'AL ESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON CALLE LEYES DE REFORMA', 'valor_real': 'AL ESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON CALLE LEYES DE REFORMA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'AL OESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON LOTE NÚMERO 20 VEINTE. PARA MAYOR IDENTIFICACIÓN DEL INMUEBLE ANTERIORMENTE CITADO, SE AGREGA PLANO DEL MISMO AL APÉNDICE DEL PROTOCOLO EN DONDE SE ASIENTA LA PRESENTE ESCRITURA, MARCÁNDOLO CON EL NÚMERO 1 UNO" SEGUNDO', 'valor_real': 'AL OESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON LOTE NÚMERO 20 VEINTE. PARA MAYOR IDENTIFICACIÓN DEL INMUEBLE ANTERIORMENTE CITADO, SE AGREGA PLANO DEL MISMO AL APÉNDICE DEL PROTOCOLO EN DONDE SE ASIENTA LA PRESENTE ESCRITURA, MARCÁNDOLO CON EL NÚMERO 1 UNO" SEGUNDO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'MENSUALIDADES_CUBRIR': {'valor_encontrado': '350 (TRESCLENTAS SESENTAI', 'valor_real': '350 (TRESCLENTAS SESENTAI', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NOTARIO': {'valor_encontrado': 'CARLOS JAVIER ESPINOZA LEYVA', 'valor_real': 'CARLOS JAVIER ESPINOZA LEYVA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'CÉCIMA SEGUNDA', 'pagina_encontrado': 37, 'pagina_real': 41, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 9, 'pagina_real': 9, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': 'UNO', 'valor_real': 'UNO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': '30 (TREINTA) AÑOS', 'valor_real': '30 (TREINTA) AÑOS', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'REA_VSM': {'valor_encontrado': ' ', 'valor_real': '7.6111', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTC)', 'valor_real': '20% (VEINTE POR CIENTC)', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': ' ', 'valor_real': '2.176', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'valor_real': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'valor_real': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '13.7%', 'valor_real': '9.0 %', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.5%', 'valor_real': '9.5%', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE AL SA DA INSOLUTA DEL CREDITO SE INCREMENZARA EN A MISMA PROPORCION EN QUE AUMENTO UL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE SIC NO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT C SOLDO INEOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'valor_real': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE AL SA DA INSOLUTA DEL CREDITO SE INCREMENZARA EN A MISMA PROPORCION EN QUE AUMENTO UL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE SIC NO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT C SOLDO INEOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'pagina_encontrado': 41, 'pagina_real': 41, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR Y SU CONYUCE MARICELA SUAREZ HERNANDEZ, PARA GARANTIZAR CL CUMPLIMIENTO DE TODAS Y CADA UNA CE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYEN HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDERTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR Y SU CONYUCE MARICELA SUAREZ HERNANDEZ, PARA GARANTIZAR CL CUMPLIMIENTO DE TODAS Y CADA UNA CE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYEN HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDERTE PRIMERO DE ESTA ESCRITURA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'FINCA URBANA', 'valor_real': 'FINCA URBANA', 'pagina_encontrado': 55, 'pagina_real': 55, 'texto_es_correcto': True, 'pagina_es_correcta': True}}</t>
         </is>
       </c>
     </row>

--- a/app/results/reviewed/809035316.xlsx
+++ b/app/results/reviewed/809035316.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,30 +458,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>modelo_ner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>valor_encontrado</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>pagina_encontrado</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valor_real</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pagina_real</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>texto_es_correcto</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>pagina_es_correcta</t>
         </is>
@@ -492,43 +497,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>df106</t>
+          <t>df006</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CIUDAD_INMUEBLE</t>
+          <t>APODERADO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CIUDAD DEL INMUEBLE</t>
+          <t>APODERADO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>55</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>-1</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -537,44 +539,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>df041</t>
+          <t>df106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CLAUSULA_ACTUALIZACION_CREDITO</t>
+          <t>CIUDAD_INMUEBLE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CLAUSULA DE ACTUALIZACIÓ DEL CRÉDITO</t>
+          <t>CIUDAD DEL INMUEBLE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DECIMA PRIMERA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>41</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>DECIMA PRIMERA</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>41</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>55</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -582,43 +589,48 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>df046</t>
+          <t>df041</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CLAUSULA_CONSTITUCION_HIPOTECA</t>
+          <t>CLAUSULA_ACTUALIZACION_CREDITO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CLAUSULA DE CONSTITUCIÓN DE HIPOTECA</t>
+          <t>CLAUSULA DE ACTUALIZACIÓ DEL CRÉDITO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SEGUNDA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>SEGUNDA</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DECIMA PRIMERA</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>41</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DECIMA PRIMERA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>41</v>
       </c>
       <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -627,44 +639,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>df050</t>
+          <t>df046</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CLAUSULA_JURISDICCION_COMPETENCIA</t>
+          <t>CLAUSULA_CONSTITUCION_HIPOTECA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CLAUSULA DE JURISDICCIÓN Y/O COMPETENCIA</t>
+          <t>CLAUSULA DE CONSTITUCIÓN DE HIPOTECA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PRIMERA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CUARTA</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -672,44 +689,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>df043</t>
+          <t>df050</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CLAUSULA_PRORROGA</t>
+          <t>CLAUSULA_JURISDICCION_COMPETENCIA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CLAUSULA DE PRORROGA</t>
+          <t>CLAUSULA DE JURISDICCIÓN Y/O COMPETENCIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DECIMA QUINTA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>42</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>DECIMA QUINTA</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>42</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PRIMERA</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CUARTA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>13</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -717,43 +739,48 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>df044</t>
+          <t>df043</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CLAUSULA_VENCIMIENTO_ANTICIPADO</t>
+          <t>CLAUSULA_PRORROGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CLAUSULA DE VENCIMIENTO ANTICIPADO</t>
+          <t>CLAUSULA DE PRORROGA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VIGESIMA PRIMERA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>44</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VIGESIMA PRIMERA</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>44</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>DECIMA QUINTA</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>42</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>DECIMA QUINTA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>42</v>
       </c>
       <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -762,43 +789,48 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>df029</t>
+          <t>df044</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CLAUSULA_INT_ORD</t>
+          <t>CLAUSULA_VENCIMIENTO_ANTICIPADO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CLAUSULA INT ORD</t>
+          <t>CLAUSULA DE VENCIMIENTO ANTICIPADO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DECIMA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>41</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>DECIMA</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>41</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>VIGESIMA PRIMERA</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>44</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>VIGESIMA PRIMERA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>44</v>
       </c>
       <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -807,43 +839,48 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>df040</t>
+          <t>df029</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CLAUSULA_PLAZO</t>
+          <t>CLAUSULA_INT_ORD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CLAÚSULA DE PLAZO</t>
+          <t>CLAUSULA INT ORD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OCTAVA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>40</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>OCTAVA</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>40</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>DECIMA</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>41</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>DECIMA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>41</v>
       </c>
       <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -852,43 +889,48 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>df026</t>
+          <t>df040</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CREDITO_PESOS</t>
+          <t>CLAUSULA_PLAZO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CRÉDITO OTORGADO EN PESOS</t>
+          <t>CLAÚSULA DE PLAZO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$427,499 89 CUATROCIENTOS VEINTISIETE MI. CUATROCIENTOS NOVENTA Y NUEVE PESOS 89/100 M.N. NONIC (ER. PESOS</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>47</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>$427,499 89 CUATROCIENTOS VEINTISIETE MI. CUATROCIENTOS NOVENTA Y NUEVE PESOS 89/100 M.N. NONIC (ER. PESOS</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>47</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>OCTAVA</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>40</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>OCTAVA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>40</v>
       </c>
       <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -897,35 +939,44 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>df075</t>
+          <t>df025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CREDITO_PESOS</t>
+          <t>CONDICIONES _CREDITO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CRÉDITO OTORGADO EN PESOS (CONYUGE)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
+          <t>CONDICIONES CRÉDITO OTORGADO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>VSM</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>-1</v>
       </c>
       <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -934,39 +985,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>df054</t>
+          <t>df068</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FOLIO_REAL</t>
+          <t>CONDICIONES _CREDITO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DATO DE REGISTRO O FOLIO REAL (COMPRAVENTA)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
+          <t xml:space="preserve">CONDICIONES CRÉDITO OTORGADO  (CONYUGE) </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>-1</v>
       </c>
       <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -975,44 +1027,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>df105</t>
+          <t>df018</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DESCRIPCION_INMUEBLE</t>
+          <t>CORREO_TRIBUNAL_VIRTUAL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DESCRIPCION DEL INMUEBLE</t>
+          <t>CORREO DEL TRIBUNAL VIRTUAL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>LOTE 9 NUEVE, DE LA MANZANA 57 CINCUENTA Y SIETE</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>LOTE 9 NUEVE, DE LA MANZANA 57 CINCUENTA Y SIETE</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>-1</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1020,40 +1069,49 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>df053</t>
+          <t>df026</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DISTRITO_RPP</t>
+          <t>CREDITO_PESOS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DISTRITO DEL RPP</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
+          <t>CRÉDITO OTORGADO EN PESOS</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>$427,499 89 CUATROCIENTOS VEINTISIETE MI. CUATROCIENTOS NOVENTA Y NUEVE PESOS 89/100 M.N. NONIC (ER. PESOS</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>47</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>$427,499 89 CUATROCIENTOS VEINTISIETE MI. CUATROCIENTOS NOVENTA Y NUEVE PESOS 89/100 M.N. NONIC (ER. PESOS</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>47</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1061,32 +1119,481 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>75</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>df075</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CREDITO_PESOS</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CRÉDITO OTORGADO EN PESOS (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>df017</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CUENTA_TRIBUNAL_VIRTUAL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CUENTA DEL TRIBUNAL VIRTUAL</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>103</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>df103</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CURP_ACREDITADO</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CURP ACREDITADO</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>128</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>df128</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CURP_ACREDITADO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CURP ACREDITADO (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>df007</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CEDULA_PROFESIONAL_APODERADO</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CÉDULA PROFESIONAL DEL APODERADO</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>54</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>df054</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FOLIO_REAL</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>DATO DE REGISTRO O FOLIO REAL (COMPRAVENTA)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>df001</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DELEGACION</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DELEGACION</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>df100</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DELEGACION</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DELEGACION (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>105</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>df105</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DESCRIPCION_INMUEBLE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DESCRIPCION DEL INMUEBLE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>LOTE 9 NUEVE, DE LA MANZANA 57 CINCUENTA Y SIETE</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>LOTE 9 NUEVE, DE LA MANZANA 57 CINCUENTA Y SIETE</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>53</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>df053</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DISTRITO_RPP</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>DISTRITO DEL RPP</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>48</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>df048</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>DOMICILIO_GARANTIA</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>DOMICILIO GARANTIA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>LEYVA NOTARIO PUBLICO NUMERO UNO DISTRITO JUDICIAL CAMARGO Y DEL PATR MONIO INMUEBLE FEDERAL INSTITUCIONCS O EMPRESAS PARA SU DIVULGACION, REPRODUCCION, EXPLOTACION, INCLUYENDO LA COMERCIALIZACION DE OTROS PRODUCTOS O SERVICIOS, Y</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="H25" t="n">
         <v>12</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>CASA
 HABITACIÓN MARCADA COR EL NÚMERO 714 SETECIENTOS CATORCE DE LA CALLE LEYES DE REFORMA, DE
@@ -1095,457 +1602,14 @@
 SOBRE ÉL CONSTRUIDA</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="J25" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>107</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>df107</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ESTADO_INMUEBLE</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ESTADO DEL INMUEBLE</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>M.N.</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>55</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>55</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>df055</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FECHA_FOLIO_REAL </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>FECHA DATO DE REGISTRO O FOLIO REAL  (COMPRAVENTA)</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>21</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>df021</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>FECHA_ESCRITURA</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>FECHA DE ESCRITURA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2 DOS DIAS DEL MES DE ABRIL CEL AÑO 2009 DOS MIL NUEVE</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2 DOS DIAS DEL MES DE ABRIL CEL AÑO 2009 DOS MIL NUEVE</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>23</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>df023</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>JURISDICCION_NOTARIO</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>JURISDICCION DEL NOTARIO</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>SANTA AOSALIA DE CAMARGO, MURICIPO DE CAMARGO</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>SANTA AOSALIA DE CAMARGO, MURICIPO DE CAMARGO</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>49</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>df049</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>JURISDICCION_SOMETIMIENTO_EXPRESO</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>JURISDICCIÓN (SOMETIMIENTO EXPRESO)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>CLAUSULAS QUE APARECEN</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>12</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>DISTRITO FEDERA A A LA DE LOS
-TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>109</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>df109</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>COLINDANCIAS_1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MEDIDAS Y COLINDANCIAS 1</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>AL NORTE, SE MIDEN 20.00 VEINTE METROS Y LINDA CON LOTE NÚMERO 8 OCHO</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>AL NORTE, SE MIDEN 20.00 VEINTE METROS Y LINDA CON LOTE NÚMERO 8 OCHO</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>110</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>df110</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>COLINDANCIAS_2</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>MEDIDAS Y COLINDANCIAS 2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>AL SUR, SE MIDEN 20.00 VEINTE METROS. Y LINDA CON LOTE NÚMERO 10 DIEZ</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>4</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>AL SUR, SE MIDEN 20.00 VEINTE METROS. Y LINDA CON LOTE NÚMERO 10 DIEZ</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>111</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>df111</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>COLINDANCIAS_3</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>MEDIDAS Y COLINDANCIAS 3</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>AL ESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON CALLE LEYES DE REFORMA</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>AL ESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON CALLE LEYES DE REFORMA</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>112</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>df112</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>COLINDANCIAS_4</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>MEDIDAS Y COLINDANCIAS 4</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>AL OESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON LOTE NÚMERO 20 VEINTE. PARA MAYOR IDENTIFICACIÓN DEL INMUEBLE ANTERIORMENTE CITADO, SE AGREGA PLANO DEL MISMO AL APÉNDICE DEL PROTOCOLO EN DONDE SE ASIENTA LA PRESENTE ESCRITURA, MARCÁNDOLO CON EL NÚMERO 1 UNO" SEGUNDO</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>4</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>AL OESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON LOTE NÚMERO 20 VEINTE. PARA MAYOR IDENTIFICACIÓN DEL INMUEBLE ANTERIORMENTE CITADO, SE AGREGA PLANO DEL MISMO AL APÉNDICE DEL PROTOCOLO EN DONDE SE ASIENTA LA PRESENTE ESCRITURA, MARCÁNDOLO CON EL NÚMERO 1 UNO" SEGUNDO</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>39</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>df039</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>MENSUALIDADES_CUBRIR</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>MENSUALIDADES A CUBRIR</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>350 (TRESCLENTAS SESENTAI</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>40</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>350 (TRESCLENTAS SESENTAI</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>40</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1553,44 +1617,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>df024</t>
+          <t>df005</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NOTARIO</t>
+          <t>DOMICILIO_RECIBIR_NOTIFICACION</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NOTARIO</t>
+          <t>DOMICILIO PARA OIR Y RECIBIR NOTIFICACION</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CARLOS JAVIER ESPINOZA LEYVA</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>CARLOS JAVIER ESPINOZA LEYVA</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>-1</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1598,44 +1659,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>df035</t>
+          <t>df019</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_REA</t>
+          <t>ENTRE_CALLES</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO REA</t>
+          <t>ENTRE CALLES SE ENCUENTRA (CUANDO SE REQUIERA)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NOVENA</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>40</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NOVENA</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>40</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>-1</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1643,44 +1701,49 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>df032</t>
+          <t>df107</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA</t>
+          <t>ESTADO_INMUEBLE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO ROA</t>
+          <t>ESTADO DEL INMUEBLE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NOVENA</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>40</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NOVENA</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>40</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>M.N.</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>55</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>-1</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1688,43 +1751,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>df031</t>
+          <t>df065</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NUM_CLAUSULA_INTERES_MORATORIO</t>
+          <t>FECHA_ACTA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NUMERO DE CLAUSULA DONDE SE FIJA EL I M</t>
+          <t>FECHA ACTA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SEGUNDA</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>37</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>CÉCIMA SEGUNDA</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>41</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>-1</v>
       </c>
       <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1733,39 +1793,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>df020</t>
+          <t>df055</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NUM_ESCRITURA</t>
+          <t xml:space="preserve">FECHA_FOLIO_REAL </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">NÚM.  ESCRITURA DE CONTRATO DE APERTURA DE CREDITO </t>
+          <t>FECHA DATO DE REGISTRO O FOLIO REAL  (COMPRAVENTA)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3326 TRES MIL TRESCIENTOS VEINTISEIS</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>4</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>-1</v>
       </c>
       <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1774,44 +1835,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>df027</t>
+          <t>df015</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NUM_CLAUSULA_OTORGAMIENTO_CREDITO</t>
+          <t>FECHA_CERTIFICACION</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NÚM. DE CLAUSULA DE OTORGAMIENTO DE CRÉDITO</t>
+          <t>FECHA DE CERTIFICACION</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PRIMERA</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>9</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PRIMERA</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>-1</v>
       </c>
       <c r="K31" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1819,43 +1877,48 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>df022</t>
+          <t>df021</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NUM_NOTARIO</t>
+          <t>FECHA_ESCRITURA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NÚM. DE NOTARIO</t>
+          <t>FECHA DE ESCRITURA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>UNO</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2 DOS DIAS DEL MES DE ABRIL CEL AÑO 2009 DOS MIL NUEVE</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>4</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>UNO</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2 DOS DIAS DEL MES DE ABRIL CEL AÑO 2009 DOS MIL NUEVE</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
       <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1864,44 +1927,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>df038</t>
+          <t>df009</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PLAZO_ANIOS</t>
+          <t>FECHA_PODER</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PLAZO (AÑOS)</t>
+          <t>FECHA DE PODER</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>30 (TREINTA) AÑOS</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>40</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>30 (TREINTA) AÑOS</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>40</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>-1</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1909,44 +1969,45 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>df036</t>
+          <t>df057</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>REA_VSM</t>
+          <t>FECHA_EMISION</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>REA EN VSM</t>
+          <t>FECHA DEL CA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>47</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>7.6111</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>47</v>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>-1</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1954,35 +2015,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>df085</t>
+          <t>df089</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>REA_VSM</t>
+          <t>FECHA_EMISION</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>REA EN VSM (CONYUGE)</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
+          <t>FECHA DEL CA (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>-1</v>
       </c>
       <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1991,44 +2057,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>df033</t>
+          <t>df064</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PORCENTAJE_ROA</t>
+          <t>FECHA_VISITA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ROA %</t>
+          <t>FECHA VISITA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>20% (VEINTE POR CIENTC)</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>40</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>20% (VEINTE POR CIENTC)</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>40</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>-1</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2036,39 +2099,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>df082</t>
+          <t>df066</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PORCENTAJE_ROA</t>
+          <t>JUEZ_EXHORTADO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ROA %  (CONYUGE)</t>
+          <t>JUEZ EXHORTADO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>38</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J37" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>-1</v>
       </c>
       <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2077,44 +2141,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>df034</t>
+          <t>df016</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ROA_VSM</t>
+          <t>JURISDICCIO_NOTARIO _CERTIFICA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ROA EN VSM</t>
+          <t>JURISDICCIO DE L NOTARIO  QUE CERTIFICA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>47</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2.176</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>47</v>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>-1</v>
       </c>
       <c r="K38" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2122,40 +2183,49 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>df083</t>
+          <t>df023</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ROA_VSM</t>
+          <t>JURISDICCION_NOTARIO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ROA EN VSM (CONYUGE)</t>
+          <t>JURISDICCION DEL NOTARIO</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>61 ICINCUENTA Y UNC) DE LA MISMA</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>41</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J39" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>SANTA AOSALIA DE CAMARGO, MURICIPO DE CAMARGO</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>SANTA AOSALIA DE CAMARGO, MURICIPO DE CAMARGO</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2163,44 +2233,50 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>df115</t>
+          <t>df049</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SUPERFICIE_CONSTRUCCION</t>
+          <t>JURISDICCION_SOMETIMIENTO_EXPRESO</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SUPERFICIE DE CONSTRUCCION</t>
+          <t>JURISDICCIÓN (SOMETIMIENTO EXPRESO)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>140.00 CIENTO CUARENTA METROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>4</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>140.00 CIENTO CUARENTA METROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>4</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CLAUSULAS QUE APARECEN</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>12</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>DISTRITO FEDERA A A LA DE LOS
+TRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>13</v>
       </c>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2208,44 +2284,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>df108</t>
+          <t>df011</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SUPERFICIE_TERRENO</t>
+          <t>JURISDICION_NOTARIO_EMITE_PODER</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SUPERFICIE DE TERRENO</t>
+          <t>JURISDICION DEL NOTARIO QUE EMITE PODER</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>140.00 CIENTO CUARENTA METROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>4</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>140.00 CIENTO CUARENTA METROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>4</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>-1</v>
       </c>
       <c r="K41" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2253,43 +2326,48 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>df030</t>
+          <t>df109</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>TASA_INTERES_MORATORIO</t>
+          <t>COLINDANCIAS_1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TASA DE INTERÉS MORATORIO</t>
+          <t>MEDIDAS Y COLINDANCIAS 1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>13.7%</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>47</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>9.0 %</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>47</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>AL NORTE, SE MIDEN 20.00 VEINTE METROS Y LINDA CON LOTE NÚMERO 8 OCHO</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>AL NORTE, SE MIDEN 20.00 VEINTE METROS Y LINDA CON LOTE NÚMERO 8 OCHO</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
       </c>
       <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2298,36 +2376,49 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>df079</t>
+          <t>df110</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TASA_INTERES_MORATORIO</t>
+          <t>COLINDANCIAS_2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TASA DE INTERÉS MORATORIO (CONYUGE)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
+          <t>MEDIDAS Y COLINDANCIAS 2</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>AL SUR, SE MIDEN 20.00 VEINTE METROS. Y LINDA CON LOTE NÚMERO 10 DIEZ</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>AL SUR, SE MIDEN 20.00 VEINTE METROS. Y LINDA CON LOTE NÚMERO 10 DIEZ</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>4</v>
       </c>
       <c r="K43" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2335,43 +2426,48 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>df028</t>
+          <t>df111</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TASA_INTERES_ORDINARIO</t>
+          <t>COLINDANCIAS_3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TASA DE INTERÉS ORDINARIO</t>
+          <t>MEDIDAS Y COLINDANCIAS 3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>47</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>47</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>AL ESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON CALLE LEYES DE REFORMA</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>AL ESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON CALLE LEYES DE REFORMA</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
       </c>
       <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2380,40 +2476,49 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>df077</t>
+          <t>df112</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TASA_INTERES_ORDINARIO</t>
+          <t>COLINDANCIAS_4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TASA DE INTERÉS ORDINARIO (CONYUGE)</t>
+          <t>MEDIDAS Y COLINDANCIAS 4</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6. OLAN 24</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>39</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>AL OESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON LOTE NÚMERO 20 VEINTE. PARA MAYOR IDENTIFICACIÓN DEL INMUEBLE ANTERIORMENTE CITADO, SE AGREGA PLANO DEL MISMO AL APÉNDICE DEL PROTOCOLO EN DONDE SE ASIENTA LA PRESENTE ESCRITURA, MARCÁNDOLO CON EL NÚMERO 1 UNO" SEGUNDO</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>AL OESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON LOTE NÚMERO 20 VEINTE. PARA MAYOR IDENTIFICACIÓN DEL INMUEBLE ANTERIORMENTE CITADO, SE AGREGA PLANO DEL MISMO AL APÉNDICE DEL PROTOCOLO EN DONDE SE ASIENTA LA PRESENTE ESCRITURA, MARCÁNDOLO CON EL NÚMERO 1 UNO" SEGUNDO</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
       </c>
       <c r="K45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2421,43 +2526,48 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>df042</t>
+          <t>df039</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>TEXTO_ACTUALIZACION</t>
+          <t>MENSUALIDADES_CUBRIR</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TEXTO DE ACTUALIZACIÓN</t>
+          <t>MENSUALIDADES A CUBRIR</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>EL TRABAJADOR ACEPTA EN ESTE ACTO QUE AL SA DA INSOLUTA DEL CREDITO SE INCREMENZARA EN A MISMA PROPORCION EN QUE AUMENTO UL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE SIC NO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT C SOLDO INEOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>41</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>EL TRABAJADOR ACEPTA EN ESTE ACTO QUE AL SA DA INSOLUTA DEL CREDITO SE INCREMENZARA EN A MISMA PROPORCION EN QUE AUMENTO UL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE SIC NO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT C SOLDO INEOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>41</v>
-      </c>
-      <c r="J46" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>350 (TRESCLENTAS SESENTAI</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>40</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>350 (TRESCLENTAS SESENTAI</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>40</v>
       </c>
       <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2466,44 +2576,45 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>df047</t>
+          <t>df056</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TEXTO_CLAUSULA_HIPOTECA</t>
+          <t>MESES_ADEUDADOS_CERTIFICADO_ADEUDOS</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TEXTO DE CLAUSULA DE HIPOTECA</t>
+          <t>MESES ADEUDADOS EN EL CERTIFICADO DE ADEUDOS</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>EL TRABAJADOR Y SU CONYUCE MARICELA SUAREZ HERNANDEZ, PARA GARANTIZAR CL CUMPLIMIENTO DE TODAS Y CADA UNA CE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYEN HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDERTE PRIMERO DE ESTA ESCRITURA</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>10</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>EL TRABAJADOR Y SU CONYUCE MARICELA SUAREZ HERNANDEZ, PARA GARANTIZAR CL CUMPLIMIENTO DE TODAS Y CADA UNA CE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYEN HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDERTE PRIMERO DE ESTA ESCRITURA</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>10</v>
-      </c>
-      <c r="J47" t="b">
-        <v>1</v>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>-1</v>
       </c>
       <c r="K47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2511,44 +2622,2237 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>99</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>df099</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>MESES_ADEUDADOS_CERTIFICADO_ADEUDOS</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MESES ADEUDADOS EN EL CERTIFICADO DE ADEUDOS (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>61</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>df061</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>MONTO_PESOS_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>MONTO EN PESOS DE INTERÉS MORATORIO</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>72</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>df072</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MONTO_PESOS_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MONTO EN PESOS DE INTERÉS MORATORIO  (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>60</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>df060</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>MONTO_VSM_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MONTO EN VSM DE INTERÉS MORATORIO</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>393.7710</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>71</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>df071</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MONTO_VSM_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MONTO EN VSM DE INTERÉS MORATORIO  (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>df003</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NOMBRE_ACREDITADO</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NOMBRE DEL ACREDITADO</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>OLIVAS GRANADOS JULIO EFREN</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>67</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>df067</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NOMBRE_ACREDITADO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NOMBRE DEL ACREDITADO  (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>24</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>df024</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NOTARIO</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NOTARIO</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>CARLOS JAVIER ESPINOZA LEYVA</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>CARLOS JAVIER ESPINOZA LEYVA</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>13</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>df013</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NOTARIO_CERTIFICA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NOTARIO QUE CERTIFICA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>df010</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NOTARIO_EMITE_PODER</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NOTARIO QUE EMITE EL PODER</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>df002</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NUMERO_CREDITO</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NUMERO CRÉDITO</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>35</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>df035</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_REA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO REA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NOVENA</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>40</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>NOVENA</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>40</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>32</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>df032</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO ROA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NOVENA</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>40</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>NOVENA</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>40</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>31</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>df031</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NUM_CLAUSULA_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NUMERO DE CLAUSULA DONDE SE FIJA EL I M</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>37</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>CÉCIMA SEGUNDA</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>41</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>74</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>df074</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NUMERO_CREDITO</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NUMERO DE CREDITO (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>df062</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NUMERO_HOJAS_CA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NUMERO DE HOJAS DEL CA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>90</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>df090</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NUMERO_HOJAS_CA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NUMERO DE HOJAS DEL CA (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>df012</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NUMERO_NOTARIO</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NUMERO DE NOTARIO</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>14</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>df014</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NUMERO_NOTARIO_CERTIFICA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NUMERO DE NOTARIO QUE CERTIFICA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>df008</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NUMERO_APODER</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NUMERO DE PODER</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>df020</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NUM_ESCRITURA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NÚM.  ESCRITURA DE CONTRATO DE APERTURA DE CREDITO </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>3326 TRES MIL TRESCIENTOS VEINTISEIS</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>27</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>df027</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NUM_CLAUSULA_OTORGAMIENTO_CREDITO</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NÚM. DE CLAUSULA DE OTORGAMIENTO DE CRÉDITO</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>PRIMERA</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>PRIMERA</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>9</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>22</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>df022</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NUM_NOTARIO</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NÚM. DE NOTARIO</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>UNO</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>UNO</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>4</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>38</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>df038</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PLAZO_ANIOS</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>PLAZO (AÑOS)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>30 (TREINTA) AÑOS</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>40</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>30 (TREINTA) AÑOS</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>40</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>63</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>df063</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PRORROGAS_APLICADAS</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>PRORROGAS APLICADAS</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>01/07/2011,01/12/2012,01/01/2014</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>73</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>df073</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PRORROGAS_APLICADAS</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>PRORROGAS APLICADAS  (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>36</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>df036</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>REA_VSM</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>REA EN VSM</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>47</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>7.6111</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>47</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>85</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>df085</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>REA_VSM</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>REA EN VSM (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>102</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>df102</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>RFC_ACREDITADO</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>RFC DEL ACREDITADO</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>FACULTADES</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>127</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>df127</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>RFC_ACREDITADO</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>RFC DEL ACREDITADO (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>33</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>df033</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>PORCENTAJE_ROA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>ROA %</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>20% (VEINTE POR CIENTC)</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>40</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>20% (VEINTE POR CIENTC)</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>40</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>82</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>df082</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>PORCENTAJE_ROA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ROA %  (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>38</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>34</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>df034</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ROA_VSM</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>ROA EN VSM</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>47</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2.176</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>47</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>83</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>df083</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ROA_VSM</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>ROA EN VSM (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>61 ICINCUENTA Y UNC) DE LA MISMA</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>41</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>70</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>df070</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SALDO_PESOS</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>SALDO QUE REQUIERE EN PESOS  (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>59</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>df059</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SALDO_PESOS</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SALDO QUE SE REQUIERE EN PESOS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>58</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>df058</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SUERTE_PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SUERTE PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>393.7</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>69</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>df069</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SUERTE_PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SUERTE PRINCIPAL  (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>115</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>df115</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SUPERFICIE_CONSTRUCCION</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SUPERFICIE DE CONSTRUCCION</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>140.00 CIENTO CUARENTA METROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>140.00 CIENTO CUARENTA METROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>108</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>df108</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SUPERFICIE_TERRENO</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SUPERFICIE DE TERRENO</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>140.00 CIENTO CUARENTA METROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>140.00 CIENTO CUARENTA METROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>4</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>30</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>df030</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TASA_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>TASA DE INTERÉS MORATORIO</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>13.7%</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>47</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>9.0 %</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>47</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>79</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>df079</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TASA_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>TASA DE INTERÉS MORATORIO (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>28</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>df028</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>TASA_INTERES_ORDINARIO</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>TASA DE INTERÉS ORDINARIO</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>47</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>47</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>77</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>df077</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>TASA_INTERES_ORDINARIO</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>TASA DE INTERÉS ORDINARIO (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>6. OLAN 24</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>39</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>42</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>df042</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>TEXTO_ACTUALIZACION</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>TEXTO DE ACTUALIZACIÓN</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR ACEPTA EN ESTE ACTO QUE AL SA DA INSOLUTA DEL CREDITO SE INCREMENZARA EN A MISMA PROPORCION EN QUE AUMENTO UL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE SIC NO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT C SOLDO INEOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>41</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR ACEPTA EN ESTE ACTO QUE AL SA DA INSOLUTA DEL CREDITO SE INCREMENZARA EN A MISMA PROPORCION EN QUE AUMENTO UL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE SIC NO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT C SOLDO INEOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>41</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>47</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>df047</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>TEXTO_CLAUSULA_HIPOTECA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>TEXTO DE CLAUSULA DE HIPOTECA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR Y SU CONYUCE MARICELA SUAREZ HERNANDEZ, PARA GARANTIZAR CL CUMPLIMIENTO DE TODAS Y CADA UNA CE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYEN HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDERTE PRIMERO DE ESTA ESCRITURA</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR Y SU CONYUCE MARICELA SUAREZ HERNANDEZ, PARA GARANTIZAR CL CUMPLIMIENTO DE TODAS Y CADA UNA CE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYEN HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDERTE PRIMERO DE ESTA ESCRITURA</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>10</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
         <v>104</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>df104</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>TIPO_INMUEBLE</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>TIPO DE INMUEBLE</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>FINCA URBANA</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="H94" t="n">
         <v>55</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>FINCA URBANA</t>
         </is>
       </c>
-      <c r="I48" t="n">
+      <c r="J94" t="n">
         <v>55</v>
       </c>
-      <c r="J48" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>91</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>df091</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>TOTAL_CREDITO_VSM_LETRA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>TOTAL DE CREDITO VSM EN LETRA (CONYUGE)</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>124</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>df124</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>VALOR_OPERACION</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>VALOR DE LA OPERACION (VALOR DEL AVALUO DE ADJUDICACION)</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>avaluo_adjudicacion</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2655,7 +4959,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'CIUDAD_INMUEBLE': {'valor_encontrado': ' ', 'valor_real': ' ', 'pagina_encontrado': 55, 'pagina_real': -1, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'DECIMA PRIMERA', 'valor_real': 'DECIMA PRIMERA', 'pagina_encontrado': 41, 'pagina_real': 41, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'SEGUNDA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'PRIMERA', 'valor_real': 'CUARTA', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA QUINTA', 'valor_real': 'DECIMA QUINTA', 'pagina_encontrado': 42, 'pagina_real': 42, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA PRIMERA', 'valor_real': 'VIGESIMA PRIMERA', 'pagina_encontrado': 44, 'pagina_real': 44, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 41, 'pagina_real': 41, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'OCTAVA', 'valor_real': 'OCTAVA', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CREDITO_PESOS': {'valor_encontrado': '$427,499 89 CUATROCIENTOS VEINTISIETE MI. CUATROCIENTOS NOVENTA Y NUEVE PESOS 89/100 M.N. NONIC (ER. PESOS', 'valor_real': '$427,499 89 CUATROCIENTOS VEINTISIETE MI. CUATROCIENTOS NOVENTA Y NUEVE PESOS 89/100 M.N. NONIC (ER. PESOS', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE 9 NUEVE, DE LA MANZANA 57 CINCUENTA Y SIETE', 'valor_real': 'LOTE 9 NUEVE, DE LA MANZANA 57 CINCUENTA Y SIETE', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'LEYVA NOTARIO PUBLICO NUMERO UNO DISTRITO JUDICIAL CAMARGO Y DEL PATR MONIO INMUEBLE FEDERAL INSTITUCIONCS O EMPRESAS PARA SU DIVULGACION, REPRODUCCION, EXPLOTACION, INCLUYENDO LA COMERCIALIZACION DE OTROS PRODUCTOS O SERVICIOS, Y', 'valor_real': 'CASA\nHABITACIÓN MARCADA COR EL NÚMERO 714 SETECIENTOS CATORCE DE LA CALLE LEYES DE REFORMA, DE\nLA COLONIA ABRAHAM GUNZÁLEZ, PRIMERA ETAPA, EL CUAL SE IDENTIFICA COMO LOTE 9 NUEVE, DE LA\nMANZANA 57 CINCUENTA Y SIETE, DE ESTA CIUDAD DE CAMARGO, CHIHUAHUA, Y LOTE DE TERRENO\nSOBRE ÉL CONSTRUIDA', 'pagina_encontrado': 12, 'pagina_real': 4, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'FECHA_ESCRITURA': {'valor_encontrado': '2 DOS DIAS DEL MES DE ABRIL CEL AÑO 2009 DOS MIL NUEVE', 'valor_real': '2 DOS DIAS DEL MES DE ABRIL CEL AÑO 2009 DOS MIL NUEVE', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'SANTA AOSALIA DE CAMARGO, MURICIPO DE CAMARGO', 'valor_real': 'SANTA AOSALIA DE CAMARGO, MURICIPO DE CAMARGO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'CLAUSULAS QUE APARECEN', 'valor_real': 'DISTRITO FEDERA A A LA DE LOS\nTRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'COLINDANCIAS_1': {'valor_encontrado': 'AL NORTE, SE MIDEN 20.00 VEINTE METROS Y LINDA CON LOTE NÚMERO 8 OCHO', 'valor_real': 'AL NORTE, SE MIDEN 20.00 VEINTE METROS Y LINDA CON LOTE NÚMERO 8 OCHO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'AL SUR, SE MIDEN 20.00 VEINTE METROS. Y LINDA CON LOTE NÚMERO 10 DIEZ', 'valor_real': 'AL SUR, SE MIDEN 20.00 VEINTE METROS. Y LINDA CON LOTE NÚMERO 10 DIEZ', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'AL ESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON CALLE LEYES DE REFORMA', 'valor_real': 'AL ESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON CALLE LEYES DE REFORMA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'AL OESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON LOTE NÚMERO 20 VEINTE. PARA MAYOR IDENTIFICACIÓN DEL INMUEBLE ANTERIORMENTE CITADO, SE AGREGA PLANO DEL MISMO AL APÉNDICE DEL PROTOCOLO EN DONDE SE ASIENTA LA PRESENTE ESCRITURA, MARCÁNDOLO CON EL NÚMERO 1 UNO" SEGUNDO', 'valor_real': 'AL OESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON LOTE NÚMERO 20 VEINTE. PARA MAYOR IDENTIFICACIÓN DEL INMUEBLE ANTERIORMENTE CITADO, SE AGREGA PLANO DEL MISMO AL APÉNDICE DEL PROTOCOLO EN DONDE SE ASIENTA LA PRESENTE ESCRITURA, MARCÁNDOLO CON EL NÚMERO 1 UNO" SEGUNDO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'MENSUALIDADES_CUBRIR': {'valor_encontrado': '350 (TRESCLENTAS SESENTAI', 'valor_real': '350 (TRESCLENTAS SESENTAI', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NOTARIO': {'valor_encontrado': 'CARLOS JAVIER ESPINOZA LEYVA', 'valor_real': 'CARLOS JAVIER ESPINOZA LEYVA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'CÉCIMA SEGUNDA', 'pagina_encontrado': 37, 'pagina_real': 41, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 9, 'pagina_real': 9, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': 'UNO', 'valor_real': 'UNO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': '30 (TREINTA) AÑOS', 'valor_real': '30 (TREINTA) AÑOS', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'REA_VSM': {'valor_encontrado': ' ', 'valor_real': '7.6111', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTC)', 'valor_real': '20% (VEINTE POR CIENTC)', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': ' ', 'valor_real': '2.176', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'valor_real': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'valor_real': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '13.7%', 'valor_real': '9.0 %', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.5%', 'valor_real': '9.5%', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE AL SA DA INSOLUTA DEL CREDITO SE INCREMENZARA EN A MISMA PROPORCION EN QUE AUMENTO UL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE SIC NO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT C SOLDO INEOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'valor_real': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE AL SA DA INSOLUTA DEL CREDITO SE INCREMENZARA EN A MISMA PROPORCION EN QUE AUMENTO UL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE SIC NO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT C SOLDO INEOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'pagina_encontrado': 41, 'pagina_real': 41, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR Y SU CONYUCE MARICELA SUAREZ HERNANDEZ, PARA GARANTIZAR CL CUMPLIMIENTO DE TODAS Y CADA UNA CE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYEN HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDERTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR Y SU CONYUCE MARICELA SUAREZ HERNANDEZ, PARA GARANTIZAR CL CUMPLIMIENTO DE TODAS Y CADA UNA CE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYEN HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDERTE PRIMERO DE ESTA ESCRITURA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'FINCA URBANA', 'valor_real': 'FINCA URBANA', 'pagina_encontrado': 55, 'pagina_real': 55, 'texto_es_correcto': True, 'pagina_es_correcta': True}}</t>
+          <t>{'ner-general': {}, 'ner-escritura': {'CIUDAD_INMUEBLE': {'valor_encontrado': ' ', 'valor_real': ' ', 'pagina_encontrado': 55, 'pagina_real': -1, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'DECIMA PRIMERA', 'valor_real': 'DECIMA PRIMERA', 'pagina_encontrado': 41, 'pagina_real': 41, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'SEGUNDA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'PRIMERA', 'valor_real': 'CUARTA', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA QUINTA', 'valor_real': 'DECIMA QUINTA', 'pagina_encontrado': 42, 'pagina_real': 42, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA PRIMERA', 'valor_real': 'VIGESIMA PRIMERA', 'pagina_encontrado': 44, 'pagina_real': 44, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 41, 'pagina_real': 41, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'OCTAVA', 'valor_real': 'OCTAVA', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CREDITO_PESOS': {'valor_encontrado': '$427,499 89 CUATROCIENTOS VEINTISIETE MI. CUATROCIENTOS NOVENTA Y NUEVE PESOS 89/100 M.N. NONIC (ER. PESOS', 'valor_real': '$427,499 89 CUATROCIENTOS VEINTISIETE MI. CUATROCIENTOS NOVENTA Y NUEVE PESOS 89/100 M.N. NONIC (ER. PESOS', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE 9 NUEVE, DE LA MANZANA 57 CINCUENTA Y SIETE', 'valor_real': 'LOTE 9 NUEVE, DE LA MANZANA 57 CINCUENTA Y SIETE', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'LEYVA NOTARIO PUBLICO NUMERO UNO DISTRITO JUDICIAL CAMARGO Y DEL PATR MONIO INMUEBLE FEDERAL INSTITUCIONCS O EMPRESAS PARA SU DIVULGACION, REPRODUCCION, EXPLOTACION, INCLUYENDO LA COMERCIALIZACION DE OTROS PRODUCTOS O SERVICIOS, Y', 'valor_real': 'CASA\nHABITACIÓN MARCADA COR EL NÚMERO 714 SETECIENTOS CATORCE DE LA CALLE LEYES DE REFORMA, DE\nLA COLONIA ABRAHAM GUNZÁLEZ, PRIMERA ETAPA, EL CUAL SE IDENTIFICA COMO LOTE 9 NUEVE, DE LA\nMANZANA 57 CINCUENTA Y SIETE, DE ESTA CIUDAD DE CAMARGO, CHIHUAHUA, Y LOTE DE TERRENO\nSOBRE ÉL CONSTRUIDA', 'pagina_encontrado': 12, 'pagina_real': 4, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'FECHA_ESCRITURA': {'valor_encontrado': '2 DOS DIAS DEL MES DE ABRIL CEL AÑO 2009 DOS MIL NUEVE', 'valor_real': '2 DOS DIAS DEL MES DE ABRIL CEL AÑO 2009 DOS MIL NUEVE', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'SANTA AOSALIA DE CAMARGO, MURICIPO DE CAMARGO', 'valor_real': 'SANTA AOSALIA DE CAMARGO, MURICIPO DE CAMARGO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'CLAUSULAS QUE APARECEN', 'valor_real': 'DISTRITO FEDERA A A LA DE LOS\nTRIBUNALES COMPETENTES EN EL LUGAR EN DONDE SE UBIQUE EL INMUEBLE OBJETO DE ESTA ESCRITURA', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'COLINDANCIAS_1': {'valor_encontrado': 'AL NORTE, SE MIDEN 20.00 VEINTE METROS Y LINDA CON LOTE NÚMERO 8 OCHO', 'valor_real': 'AL NORTE, SE MIDEN 20.00 VEINTE METROS Y LINDA CON LOTE NÚMERO 8 OCHO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'AL SUR, SE MIDEN 20.00 VEINTE METROS. Y LINDA CON LOTE NÚMERO 10 DIEZ', 'valor_real': 'AL SUR, SE MIDEN 20.00 VEINTE METROS. Y LINDA CON LOTE NÚMERO 10 DIEZ', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'AL ESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON CALLE LEYES DE REFORMA', 'valor_real': 'AL ESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON CALLE LEYES DE REFORMA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'AL OESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON LOTE NÚMERO 20 VEINTE. PARA MAYOR IDENTIFICACIÓN DEL INMUEBLE ANTERIORMENTE CITADO, SE AGREGA PLANO DEL MISMO AL APÉNDICE DEL PROTOCOLO EN DONDE SE ASIENTA LA PRESENTE ESCRITURA, MARCÁNDOLO CON EL NÚMERO 1 UNO" SEGUNDO', 'valor_real': 'AL OESTE, SE MIDEN 7.00 SIETE METROS, Y LINDA CON LOTE NÚMERO 20 VEINTE. PARA MAYOR IDENTIFICACIÓN DEL INMUEBLE ANTERIORMENTE CITADO, SE AGREGA PLANO DEL MISMO AL APÉNDICE DEL PROTOCOLO EN DONDE SE ASIENTA LA PRESENTE ESCRITURA, MARCÁNDOLO CON EL NÚMERO 1 UNO" SEGUNDO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'MENSUALIDADES_CUBRIR': {'valor_encontrado': '350 (TRESCLENTAS SESENTAI', 'valor_real': '350 (TRESCLENTAS SESENTAI', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NOTARIO': {'valor_encontrado': 'CARLOS JAVIER ESPINOZA LEYVA', 'valor_real': 'CARLOS JAVIER ESPINOZA LEYVA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'SEGUNDA', 'valor_real': 'CÉCIMA SEGUNDA', 'pagina_encontrado': 37, 'pagina_real': 41, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 9, 'pagina_real': 9, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': 'UNO', 'valor_real': 'UNO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': '30 (TREINTA) AÑOS', 'valor_real': '30 (TREINTA) AÑOS', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'REA_VSM': {'valor_encontrado': ' ', 'valor_real': '7.6111', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTC)', 'valor_real': '20% (VEINTE POR CIENTC)', 'pagina_encontrado': 40, 'pagina_real': 40, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': ' ', 'valor_real': '2.176', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'valor_real': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'valor_real': '140.00 CIENTO CUARENTA METROS CUADRADOS', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '13.7%', 'valor_real': '9.0 %', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.5%', 'valor_real': '9.5%', 'pagina_encontrado': 47, 'pagina_real': 47, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE AL SA DA INSOLUTA DEL CREDITO SE INCREMENZARA EN A MISMA PROPORCION EN QUE AUMENTO UL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE SIC NO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT C SOLDO INEOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'valor_real': 'EL TRABAJADOR ACEPTA EN ESTE ACTO QUE AL SA DA INSOLUTA DEL CREDITO SE INCREMENZARA EN A MISMA PROPORCION EN QUE AUMENTO UL SALARIO MINIMO GENERAL DIARIO QUE RIJA EN EL DISTRITO FEDERAL, A PARTIR DE LA FECHA EN QUE ENTRE EN VIGOR EN EL DISTRITO FEDERAL EL AUMENTO DE QUE SE TRATE DE SIC NO SALARIO, Y, POR CONSIGUIENTE, EL TRABAJADOR SE OBLIGA A PAGAR AL INFONAVIT C SOLDO INEOLUTO DEL CREDITO QUE RESULTARE DEL AJUSTE QUE SE HICIERE CONFORME A LO ANTES ESTIPULADO', 'pagina_encontrado': 41, 'pagina_real': 41, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR Y SU CONYUCE MARICELA SUAREZ HERNANDEZ, PARA GARANTIZAR CL CUMPLIMIENTO DE TODAS Y CADA UNA CE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYEN HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDERTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR Y SU CONYUCE MARICELA SUAREZ HERNANDEZ, PARA GARANTIZAR CL CUMPLIMIENTO DE TODAS Y CADA UNA CE LAS OBLIGACIONES QUE EL TRABAJADOR CONTRAE POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYEN HIPOTECA A FAVOR DEL INFONAVIT SOBRE EL INMUEBLE RELACIONADO EN EL ANTECEDERTE PRIMERO DE ESTA ESCRITURA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'FINCA URBANA', 'valor_real': 'FINCA URBANA', 'pagina_encontrado': 55, 'pagina_real': 55, 'texto_es_correcto': True, 'pagina_es_correcta': True}}, 'ner-certificado': {}, 'avaluo_adjudicacion': {}}</t>
         </is>
       </c>
     </row>
